--- a/biology/Médecine/Ovule_(pharmacie_galénique)/Ovule_(pharmacie_galénique).xlsx
+++ b/biology/Médecine/Ovule_(pharmacie_galénique)/Ovule_(pharmacie_galénique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ovule_(pharmacie_gal%C3%A9nique)</t>
+          <t>Ovule_(pharmacie_galénique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En pharmacie galénique, un ovule ou ovule gynécologique ou suppositoire vaginal est une forme galénique solide, de forme le plus souvent ovoïde, destinée à une application par voie vaginale, c'est-à-dire au niveau du vagin. Les ovules sont généralement obtenue par moulage. Les ovules sont de plus en plus délaissés au profit des comprimés vaginaux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ovule_(pharmacie_gal%C3%A9nique)</t>
+          <t>Ovule_(pharmacie_galénique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ovules contiennent au moins un principe actif dissout ou dispersé dans un excipient approprié (soluble, ou pouvant se disperser dans l'eau, ou fondant à la température du corps)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ovules contiennent au moins un principe actif dissout ou dispersé dans un excipient approprié (soluble, ou pouvant se disperser dans l'eau, ou fondant à la température du corps) :
 eau ;
 excipients gras identiques à ceux des suppositoires ;
 excipients hydrosoluble : gélatine, glycérine, PEG, dérivés de cellulose.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ovule_(pharmacie_gal%C3%A9nique)</t>
+          <t>Ovule_(pharmacie_galénique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En Belgique
-(cette liste englobe également les comprimés vaginaux) 
+          <t>En Belgique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(cette liste englobe également les comprimés vaginaux) 
 Aacifemine : ovules à l'estriol (0,5 mg)
 Canestene gyn clotrimazole : comprimés vaginaux au clotrimazole (100 mg ou 500 mg)
 Flagyl : ovules au métronidazole (500 mg) ; sous le nom de Flagyl sont également commercialisées des spécialités à usage oral (comprimés) ou parentéral (sacs pour perfusion, réservés à l'usage hospitalier)
